--- a/data/curtailmentinfo.xlsx
+++ b/data/curtailmentinfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linaabedisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linaabedisa/Documents/GitHub/AMO-Single-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C10E27-BF53-E247-9EFB-AD8BFDAD1756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF72E99-1F0E-F547-9A89-0AFA3D87160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22660" yWindow="500" windowWidth="18860" windowHeight="21100" xr2:uid="{2CB698BF-F1B8-8547-A9A6-6E8D8C9432F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28760" windowHeight="16260" xr2:uid="{2CB698BF-F1B8-8547-A9A6-6E8D8C9432F1}"/>
   </bookViews>
   <sheets>
     <sheet name="curtailmentinfo" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -517,9 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9139EBCA-1721-EF4F-BE36-1D02E38370F8}">
   <dimension ref="A1:I460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C457" sqref="C457"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +544,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -572,13 +573,13 @@
       <c r="F2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
         <v>15</v>
       </c>
     </row>
@@ -601,13 +602,13 @@
       <c r="F3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>20</v>
       </c>
       <c r="H3">
         <v>12</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>15</v>
       </c>
     </row>
@@ -630,13 +631,13 @@
       <c r="F4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>20</v>
       </c>
       <c r="H4">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>15</v>
       </c>
     </row>
@@ -659,13 +660,13 @@
       <c r="F5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>20</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>15</v>
       </c>
     </row>
@@ -688,13 +689,13 @@
       <c r="F6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>20</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>15</v>
       </c>
     </row>
@@ -717,13 +718,13 @@
       <c r="F7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>20</v>
       </c>
       <c r="H7">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>15</v>
       </c>
     </row>
@@ -746,13 +747,13 @@
       <c r="F8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>20</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>15</v>
       </c>
     </row>
@@ -775,13 +776,13 @@
       <c r="F9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>20</v>
       </c>
       <c r="H9">
         <v>12</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>15</v>
       </c>
     </row>
@@ -804,13 +805,13 @@
       <c r="F10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>20</v>
       </c>
       <c r="H10">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>15</v>
       </c>
     </row>
@@ -833,13 +834,13 @@
       <c r="F11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>20</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>15</v>
       </c>
     </row>
@@ -862,13 +863,13 @@
       <c r="F12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>20</v>
       </c>
       <c r="H12">
         <v>12</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>15</v>
       </c>
     </row>
@@ -891,13 +892,13 @@
       <c r="F13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>20</v>
       </c>
       <c r="H13">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>15</v>
       </c>
     </row>
@@ -920,13 +921,13 @@
       <c r="F14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>20</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>15</v>
       </c>
     </row>
@@ -949,13 +950,13 @@
       <c r="F15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>20</v>
       </c>
       <c r="H15">
         <v>12</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>15</v>
       </c>
     </row>
@@ -978,13 +979,13 @@
       <c r="F16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>20</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1007,13 +1008,13 @@
       <c r="F17">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>20</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1036,13 +1037,13 @@
       <c r="F18">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>20</v>
       </c>
       <c r="H18">
         <v>12</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1065,13 +1066,13 @@
       <c r="F19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>20</v>
       </c>
       <c r="H19">
         <v>14</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1094,13 +1095,13 @@
       <c r="F20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>20</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1123,13 +1124,13 @@
       <c r="F21">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>20</v>
       </c>
       <c r="H21">
         <v>12</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1152,13 +1153,13 @@
       <c r="F22">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>20</v>
       </c>
       <c r="H22">
         <v>14</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1181,13 +1182,13 @@
       <c r="F23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>20</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1210,13 +1211,13 @@
       <c r="F24">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>20</v>
       </c>
       <c r="H24">
         <v>12</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1239,13 +1240,13 @@
       <c r="F25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>20</v>
       </c>
       <c r="H25">
         <v>14</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1268,13 +1269,13 @@
       <c r="F26">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>20</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1297,13 +1298,13 @@
       <c r="F27">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>20</v>
       </c>
       <c r="H27">
         <v>12</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1326,13 +1327,13 @@
       <c r="F28">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>20</v>
       </c>
       <c r="H28">
         <v>14</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1355,13 +1356,13 @@
       <c r="F29">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>20</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1384,13 +1385,13 @@
       <c r="F30">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>20</v>
       </c>
       <c r="H30">
         <v>12</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1413,13 +1414,13 @@
       <c r="F31">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>20</v>
       </c>
       <c r="H31">
         <v>14</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1442,13 +1443,13 @@
       <c r="F32">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>20</v>
       </c>
       <c r="H32">
         <v>10</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1471,13 +1472,13 @@
       <c r="F33">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>20</v>
       </c>
       <c r="H33">
         <v>12</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1500,13 +1501,13 @@
       <c r="F34">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>20</v>
       </c>
       <c r="H34">
         <v>14</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1529,13 +1530,13 @@
       <c r="F35">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>20</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1558,13 +1559,13 @@
       <c r="F36">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>20</v>
       </c>
       <c r="H36">
         <v>12</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1587,13 +1588,13 @@
       <c r="F37">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>20</v>
       </c>
       <c r="H37">
         <v>14</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1616,13 +1617,13 @@
       <c r="F38">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>20</v>
       </c>
       <c r="H38">
         <v>10</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1645,13 +1646,13 @@
       <c r="F39">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>20</v>
       </c>
       <c r="H39">
         <v>12</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1674,13 +1675,13 @@
       <c r="F40">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>20</v>
       </c>
       <c r="H40">
         <v>14</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1703,13 +1704,13 @@
       <c r="F41">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>20</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1732,13 +1733,13 @@
       <c r="F42">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>20</v>
       </c>
       <c r="H42">
         <v>12</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1761,13 +1762,13 @@
       <c r="F43">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>20</v>
       </c>
       <c r="H43">
         <v>14</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1790,13 +1791,13 @@
       <c r="F44">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>20</v>
       </c>
       <c r="H44">
         <v>10</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1819,13 +1820,13 @@
       <c r="F45">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>20</v>
       </c>
       <c r="H45">
         <v>12</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1848,13 +1849,13 @@
       <c r="F46">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>20</v>
       </c>
       <c r="H46">
         <v>14</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1877,13 +1878,13 @@
       <c r="F47">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>20</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1906,13 +1907,13 @@
       <c r="F48">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>20</v>
       </c>
       <c r="H48">
         <v>12</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1935,13 +1936,13 @@
       <c r="F49">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>20</v>
       </c>
       <c r="H49">
         <v>14</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1964,13 +1965,13 @@
       <c r="F50">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>20</v>
       </c>
       <c r="H50">
         <v>10</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1993,13 +1994,13 @@
       <c r="F51">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>20</v>
       </c>
       <c r="H51">
         <v>12</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2022,13 +2023,13 @@
       <c r="F52">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>20</v>
       </c>
       <c r="H52">
         <v>14</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2051,13 +2052,13 @@
       <c r="F53">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>20</v>
       </c>
       <c r="H53">
         <v>10</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2080,13 +2081,13 @@
       <c r="F54">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>20</v>
       </c>
       <c r="H54">
         <v>12</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2109,13 +2110,13 @@
       <c r="F55">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>20</v>
       </c>
       <c r="H55">
         <v>14</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2138,13 +2139,13 @@
       <c r="F56">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>20</v>
       </c>
       <c r="H56">
         <v>10</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2167,13 +2168,13 @@
       <c r="F57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>20</v>
       </c>
       <c r="H57">
         <v>12</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2196,13 +2197,13 @@
       <c r="F58">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>20</v>
       </c>
       <c r="H58">
         <v>14</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2225,13 +2226,13 @@
       <c r="F59">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>20</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2254,13 +2255,13 @@
       <c r="F60">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>20</v>
       </c>
       <c r="H60">
         <v>12</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2283,13 +2284,13 @@
       <c r="F61">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>20</v>
       </c>
       <c r="H61">
         <v>14</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2312,13 +2313,13 @@
       <c r="F62">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>20</v>
       </c>
       <c r="H62">
         <v>10</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2341,13 +2342,13 @@
       <c r="F63">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>20</v>
       </c>
       <c r="H63">
         <v>12</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2370,13 +2371,13 @@
       <c r="F64">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>20</v>
       </c>
       <c r="H64">
         <v>14</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2399,13 +2400,13 @@
       <c r="F65">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <v>20</v>
       </c>
       <c r="H65">
         <v>10</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2428,13 +2429,13 @@
       <c r="F66">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>20</v>
       </c>
       <c r="H66">
         <v>12</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2457,13 +2458,13 @@
       <c r="F67">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>20</v>
       </c>
       <c r="H67">
         <v>14</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2486,13 +2487,13 @@
       <c r="F68">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <v>20</v>
       </c>
       <c r="H68">
         <v>10</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2515,13 +2516,13 @@
       <c r="F69">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
         <v>20</v>
       </c>
       <c r="H69">
         <v>12</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2544,13 +2545,13 @@
       <c r="F70">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <v>20</v>
       </c>
       <c r="H70">
         <v>14</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2573,13 +2574,13 @@
       <c r="F71">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>20</v>
       </c>
       <c r="H71">
         <v>10</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2602,13 +2603,13 @@
       <c r="F72">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>20</v>
       </c>
       <c r="H72">
         <v>12</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2631,13 +2632,13 @@
       <c r="F73">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>20</v>
       </c>
       <c r="H73">
         <v>14</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2660,13 +2661,13 @@
       <c r="F74">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <v>20</v>
       </c>
       <c r="H74">
         <v>10</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2689,13 +2690,13 @@
       <c r="F75">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>20</v>
       </c>
       <c r="H75">
         <v>12</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2718,13 +2719,13 @@
       <c r="F76">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>20</v>
       </c>
       <c r="H76">
         <v>14</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2747,13 +2748,13 @@
       <c r="F77">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <v>20</v>
       </c>
       <c r="H77">
         <v>10</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2776,13 +2777,13 @@
       <c r="F78">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <v>20</v>
       </c>
       <c r="H78">
         <v>12</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2805,13 +2806,13 @@
       <c r="F79">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <v>20</v>
       </c>
       <c r="H79">
         <v>14</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2834,13 +2835,13 @@
       <c r="F80">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
         <v>20</v>
       </c>
       <c r="H80">
         <v>10</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2863,13 +2864,13 @@
       <c r="F81">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <v>20</v>
       </c>
       <c r="H81">
         <v>12</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2892,13 +2893,13 @@
       <c r="F82">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
         <v>20</v>
       </c>
       <c r="H82">
         <v>14</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2921,13 +2922,13 @@
       <c r="F83">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
         <v>20</v>
       </c>
       <c r="H83">
         <v>10</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2950,13 +2951,13 @@
       <c r="F84">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>20</v>
       </c>
       <c r="H84">
         <v>12</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2979,13 +2980,13 @@
       <c r="F85">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
         <v>20</v>
       </c>
       <c r="H85">
         <v>14</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3008,13 +3009,13 @@
       <c r="F86">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>20</v>
       </c>
       <c r="H86">
         <v>10</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3037,13 +3038,13 @@
       <c r="F87">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>20</v>
       </c>
       <c r="H87">
         <v>12</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3066,13 +3067,13 @@
       <c r="F88">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>20</v>
       </c>
       <c r="H88">
         <v>14</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3095,13 +3096,13 @@
       <c r="F89">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>20</v>
       </c>
       <c r="H89">
         <v>10</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3124,13 +3125,13 @@
       <c r="F90">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>20</v>
       </c>
       <c r="H90">
         <v>12</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3153,13 +3154,13 @@
       <c r="F91">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>20</v>
       </c>
       <c r="H91">
         <v>14</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3182,13 +3183,13 @@
       <c r="F92">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>20</v>
       </c>
       <c r="H92">
         <v>10</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3211,13 +3212,13 @@
       <c r="F93">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>20</v>
       </c>
       <c r="H93">
         <v>12</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3240,13 +3241,13 @@
       <c r="F94">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>20</v>
       </c>
       <c r="H94">
         <v>14</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3269,13 +3270,13 @@
       <c r="F95">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>20</v>
       </c>
       <c r="H95">
         <v>10</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3298,13 +3299,13 @@
       <c r="F96">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>20</v>
       </c>
       <c r="H96">
         <v>12</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3327,13 +3328,13 @@
       <c r="F97">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>20</v>
       </c>
       <c r="H97">
         <v>14</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3356,13 +3357,13 @@
       <c r="F98">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>20</v>
       </c>
       <c r="H98">
         <v>10</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3385,13 +3386,13 @@
       <c r="F99">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>20</v>
       </c>
       <c r="H99">
         <v>12</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3414,13 +3415,13 @@
       <c r="F100">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>20</v>
       </c>
       <c r="H100">
         <v>14</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3443,13 +3444,13 @@
       <c r="F101">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>20</v>
       </c>
       <c r="H101">
         <v>10</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3472,13 +3473,13 @@
       <c r="F102">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>20</v>
       </c>
       <c r="H102">
         <v>12</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3501,13 +3502,13 @@
       <c r="F103">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>20</v>
       </c>
       <c r="H103">
         <v>14</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3530,13 +3531,13 @@
       <c r="F104">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>20</v>
       </c>
       <c r="H104">
         <v>10</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3559,13 +3560,13 @@
       <c r="F105">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
         <v>20</v>
       </c>
       <c r="H105">
         <v>12</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3588,13 +3589,13 @@
       <c r="F106">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>20</v>
       </c>
       <c r="H106">
         <v>14</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3617,13 +3618,13 @@
       <c r="F107">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <v>20</v>
       </c>
       <c r="H107">
         <v>10</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3646,13 +3647,13 @@
       <c r="F108">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="3">
         <v>20</v>
       </c>
       <c r="H108">
         <v>12</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3675,13 +3676,13 @@
       <c r="F109">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <v>20</v>
       </c>
       <c r="H109">
         <v>14</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3704,13 +3705,13 @@
       <c r="F110">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
         <v>20</v>
       </c>
       <c r="H110">
         <v>10</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3733,13 +3734,13 @@
       <c r="F111">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
         <v>20</v>
       </c>
       <c r="H111">
         <v>12</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3762,13 +3763,13 @@
       <c r="F112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
         <v>20</v>
       </c>
       <c r="H112">
         <v>14</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3791,13 +3792,13 @@
       <c r="F113">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="3">
         <v>20</v>
       </c>
       <c r="H113">
         <v>10</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3820,13 +3821,13 @@
       <c r="F114">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="3">
         <v>20</v>
       </c>
       <c r="H114">
         <v>12</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3849,13 +3850,13 @@
       <c r="F115">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="3">
         <v>20</v>
       </c>
       <c r="H115">
         <v>14</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3878,13 +3879,13 @@
       <c r="F116">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
         <v>20</v>
       </c>
       <c r="H116">
         <v>10</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3907,13 +3908,13 @@
       <c r="F117">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="3">
         <v>20</v>
       </c>
       <c r="H117">
         <v>12</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3936,13 +3937,13 @@
       <c r="F118">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="3">
         <v>20</v>
       </c>
       <c r="H118">
         <v>14</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3965,13 +3966,13 @@
       <c r="F119">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="3">
         <v>20</v>
       </c>
       <c r="H119">
         <v>10</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3994,13 +3995,13 @@
       <c r="F120">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="3">
         <v>20</v>
       </c>
       <c r="H120">
         <v>12</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4023,13 +4024,13 @@
       <c r="F121">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="3">
         <v>20</v>
       </c>
       <c r="H121">
         <v>14</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4052,13 +4053,13 @@
       <c r="F122">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="3">
         <v>20</v>
       </c>
       <c r="H122">
         <v>10</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4081,13 +4082,13 @@
       <c r="F123">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="3">
         <v>20</v>
       </c>
       <c r="H123">
         <v>12</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4110,13 +4111,13 @@
       <c r="F124">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="3">
         <v>20</v>
       </c>
       <c r="H124">
         <v>14</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4139,13 +4140,13 @@
       <c r="F125">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="3">
         <v>20</v>
       </c>
       <c r="H125">
         <v>10</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4168,13 +4169,13 @@
       <c r="F126">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="3">
         <v>20</v>
       </c>
       <c r="H126">
         <v>12</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4197,13 +4198,13 @@
       <c r="F127">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="3">
         <v>20</v>
       </c>
       <c r="H127">
         <v>14</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4226,13 +4227,13 @@
       <c r="F128">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="3">
         <v>20</v>
       </c>
       <c r="H128">
         <v>10</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4255,13 +4256,13 @@
       <c r="F129">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="3">
         <v>20</v>
       </c>
       <c r="H129">
         <v>12</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4284,13 +4285,13 @@
       <c r="F130">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="3">
         <v>20</v>
       </c>
       <c r="H130">
         <v>14</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4313,13 +4314,13 @@
       <c r="F131">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="3">
         <v>20</v>
       </c>
       <c r="H131">
         <v>10</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4342,13 +4343,13 @@
       <c r="F132">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="3">
         <v>20</v>
       </c>
       <c r="H132">
         <v>12</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4371,13 +4372,13 @@
       <c r="F133">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="3">
         <v>20</v>
       </c>
       <c r="H133">
         <v>14</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4400,13 +4401,13 @@
       <c r="F134">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="3">
         <v>20</v>
       </c>
       <c r="H134">
         <v>10</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4429,13 +4430,13 @@
       <c r="F135">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="3">
         <v>20</v>
       </c>
       <c r="H135">
         <v>12</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4458,13 +4459,13 @@
       <c r="F136">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="3">
         <v>20</v>
       </c>
       <c r="H136">
         <v>14</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4487,13 +4488,13 @@
       <c r="F137">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="3">
         <v>20</v>
       </c>
       <c r="H137">
         <v>10</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4516,13 +4517,13 @@
       <c r="F138">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="3">
         <v>20</v>
       </c>
       <c r="H138">
         <v>12</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4545,13 +4546,13 @@
       <c r="F139">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="3">
         <v>20</v>
       </c>
       <c r="H139">
         <v>14</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4574,13 +4575,13 @@
       <c r="F140">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="3">
         <v>20</v>
       </c>
       <c r="H140">
         <v>10</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4603,13 +4604,13 @@
       <c r="F141">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="3">
         <v>20</v>
       </c>
       <c r="H141">
         <v>12</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4632,13 +4633,13 @@
       <c r="F142">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="3">
         <v>20</v>
       </c>
       <c r="H142">
         <v>14</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4661,13 +4662,13 @@
       <c r="F143">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="3">
         <v>20</v>
       </c>
       <c r="H143">
         <v>10</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4690,13 +4691,13 @@
       <c r="F144">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="3">
         <v>20</v>
       </c>
       <c r="H144">
         <v>12</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4719,13 +4720,13 @@
       <c r="F145">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="3">
         <v>20</v>
       </c>
       <c r="H145">
         <v>14</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4748,13 +4749,13 @@
       <c r="F146">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="3">
         <v>20</v>
       </c>
       <c r="H146">
         <v>10</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4777,13 +4778,13 @@
       <c r="F147">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="3">
         <v>20</v>
       </c>
       <c r="H147">
         <v>12</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4806,13 +4807,13 @@
       <c r="F148">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="3">
         <v>20</v>
       </c>
       <c r="H148">
         <v>14</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4835,13 +4836,13 @@
       <c r="F149">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="3">
         <v>20</v>
       </c>
       <c r="H149">
         <v>10</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4864,13 +4865,13 @@
       <c r="F150">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="3">
         <v>20</v>
       </c>
       <c r="H150">
         <v>12</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4893,13 +4894,13 @@
       <c r="F151">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="3">
         <v>20</v>
       </c>
       <c r="H151">
         <v>14</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4922,13 +4923,13 @@
       <c r="F152">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="3">
         <v>20</v>
       </c>
       <c r="H152">
         <v>10</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4951,13 +4952,13 @@
       <c r="F153">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="3">
         <v>20</v>
       </c>
       <c r="H153">
         <v>12</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="3">
         <v>15</v>
       </c>
     </row>
@@ -4980,13 +4981,13 @@
       <c r="F154">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="3">
         <v>20</v>
       </c>
       <c r="H154">
         <v>14</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5009,13 +5010,13 @@
       <c r="F155">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="3">
         <v>20</v>
       </c>
       <c r="H155">
         <v>10</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5038,13 +5039,13 @@
       <c r="F156">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="3">
         <v>20</v>
       </c>
       <c r="H156">
         <v>12</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5067,13 +5068,13 @@
       <c r="F157">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="3">
         <v>20</v>
       </c>
       <c r="H157">
         <v>14</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5096,13 +5097,13 @@
       <c r="F158">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="3">
         <v>20</v>
       </c>
       <c r="H158">
         <v>10</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5125,13 +5126,13 @@
       <c r="F159">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="3">
         <v>20</v>
       </c>
       <c r="H159">
         <v>12</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5154,13 +5155,13 @@
       <c r="F160">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="3">
         <v>20</v>
       </c>
       <c r="H160">
         <v>14</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5183,13 +5184,13 @@
       <c r="F161">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="3">
         <v>20</v>
       </c>
       <c r="H161">
         <v>10</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5212,13 +5213,13 @@
       <c r="F162">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="3">
         <v>20</v>
       </c>
       <c r="H162">
         <v>12</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5241,13 +5242,13 @@
       <c r="F163">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="3">
         <v>20</v>
       </c>
       <c r="H163">
         <v>14</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5270,13 +5271,13 @@
       <c r="F164">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="3">
         <v>20</v>
       </c>
       <c r="H164">
         <v>10</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5299,13 +5300,13 @@
       <c r="F165">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="3">
         <v>20</v>
       </c>
       <c r="H165">
         <v>12</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5328,13 +5329,13 @@
       <c r="F166">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="3">
         <v>20</v>
       </c>
       <c r="H166">
         <v>14</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5357,13 +5358,13 @@
       <c r="F167">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="3">
         <v>20</v>
       </c>
       <c r="H167">
         <v>10</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5386,13 +5387,13 @@
       <c r="F168">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="3">
         <v>20</v>
       </c>
       <c r="H168">
         <v>12</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5415,13 +5416,13 @@
       <c r="F169">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="3">
         <v>20</v>
       </c>
       <c r="H169">
         <v>14</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5444,13 +5445,13 @@
       <c r="F170">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="3">
         <v>20</v>
       </c>
       <c r="H170">
         <v>10</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5473,13 +5474,13 @@
       <c r="F171">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="3">
         <v>20</v>
       </c>
       <c r="H171">
         <v>12</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5502,13 +5503,13 @@
       <c r="F172">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="3">
         <v>20</v>
       </c>
       <c r="H172">
         <v>14</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5531,13 +5532,13 @@
       <c r="F173">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="3">
         <v>20</v>
       </c>
       <c r="H173">
         <v>10</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5560,13 +5561,13 @@
       <c r="F174">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="3">
         <v>20</v>
       </c>
       <c r="H174">
         <v>12</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5589,13 +5590,13 @@
       <c r="F175">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="3">
         <v>20</v>
       </c>
       <c r="H175">
         <v>14</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5618,13 +5619,13 @@
       <c r="F176">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="3">
         <v>20</v>
       </c>
       <c r="H176">
         <v>10</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5647,13 +5648,13 @@
       <c r="F177">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="3">
         <v>20</v>
       </c>
       <c r="H177">
         <v>12</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5676,13 +5677,13 @@
       <c r="F178">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="3">
         <v>20</v>
       </c>
       <c r="H178">
         <v>14</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5705,13 +5706,13 @@
       <c r="F179">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="3">
         <v>20</v>
       </c>
       <c r="H179">
         <v>10</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5734,13 +5735,13 @@
       <c r="F180">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="3">
         <v>20</v>
       </c>
       <c r="H180">
         <v>12</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5763,13 +5764,13 @@
       <c r="F181">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="3">
         <v>20</v>
       </c>
       <c r="H181">
         <v>14</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5792,13 +5793,13 @@
       <c r="F182">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="3">
         <v>20</v>
       </c>
       <c r="H182">
         <v>10</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5821,13 +5822,13 @@
       <c r="F183">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="3">
         <v>20</v>
       </c>
       <c r="H183">
         <v>12</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5850,13 +5851,13 @@
       <c r="F184">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="3">
         <v>20</v>
       </c>
       <c r="H184">
         <v>14</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5879,13 +5880,13 @@
       <c r="F185">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="3">
         <v>20</v>
       </c>
       <c r="H185">
         <v>10</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5908,13 +5909,13 @@
       <c r="F186">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="3">
         <v>20</v>
       </c>
       <c r="H186">
         <v>12</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5937,13 +5938,13 @@
       <c r="F187">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="3">
         <v>20</v>
       </c>
       <c r="H187">
         <v>14</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5966,13 +5967,13 @@
       <c r="F188">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="3">
         <v>20</v>
       </c>
       <c r="H188">
         <v>10</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5995,13 +5996,13 @@
       <c r="F189">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="3">
         <v>20</v>
       </c>
       <c r="H189">
         <v>12</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6024,13 +6025,13 @@
       <c r="F190">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="3">
         <v>20</v>
       </c>
       <c r="H190">
         <v>14</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6053,13 +6054,13 @@
       <c r="F191">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="3">
         <v>20</v>
       </c>
       <c r="H191">
         <v>10</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6082,13 +6083,13 @@
       <c r="F192">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="3">
         <v>20</v>
       </c>
       <c r="H192">
         <v>12</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6111,13 +6112,13 @@
       <c r="F193">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="3">
         <v>20</v>
       </c>
       <c r="H193">
         <v>14</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6140,13 +6141,13 @@
       <c r="F194">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="3">
         <v>20</v>
       </c>
       <c r="H194">
         <v>10</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6169,13 +6170,13 @@
       <c r="F195">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="3">
         <v>20</v>
       </c>
       <c r="H195">
         <v>12</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6198,13 +6199,13 @@
       <c r="F196">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="3">
         <v>20</v>
       </c>
       <c r="H196">
         <v>14</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6227,13 +6228,13 @@
       <c r="F197">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="3">
         <v>20</v>
       </c>
       <c r="H197">
         <v>10</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6256,13 +6257,13 @@
       <c r="F198">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="3">
         <v>20</v>
       </c>
       <c r="H198">
         <v>12</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6285,13 +6286,13 @@
       <c r="F199">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="3">
         <v>20</v>
       </c>
       <c r="H199">
         <v>14</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6314,13 +6315,13 @@
       <c r="F200">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="3">
         <v>20</v>
       </c>
       <c r="H200">
         <v>10</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6343,13 +6344,13 @@
       <c r="F201">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="3">
         <v>20</v>
       </c>
       <c r="H201">
         <v>12</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6372,13 +6373,13 @@
       <c r="F202">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="3">
         <v>20</v>
       </c>
       <c r="H202">
         <v>14</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6401,13 +6402,13 @@
       <c r="F203">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="3">
         <v>20</v>
       </c>
       <c r="H203">
         <v>10</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6430,13 +6431,13 @@
       <c r="F204">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="3">
         <v>20</v>
       </c>
       <c r="H204">
         <v>12</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6459,13 +6460,13 @@
       <c r="F205">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="3">
         <v>20</v>
       </c>
       <c r="H205">
         <v>14</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6488,13 +6489,13 @@
       <c r="F206">
         <v>0.54</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="3">
         <v>20</v>
       </c>
       <c r="H206">
         <v>10</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6517,13 +6518,13 @@
       <c r="F207">
         <v>0.54</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="3">
         <v>20</v>
       </c>
       <c r="H207">
         <v>12</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6546,13 +6547,13 @@
       <c r="F208">
         <v>0.54</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="3">
         <v>20</v>
       </c>
       <c r="H208">
         <v>14</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6575,13 +6576,13 @@
       <c r="F209">
         <v>0.54</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="3">
         <v>20</v>
       </c>
       <c r="H209">
         <v>10</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6604,13 +6605,13 @@
       <c r="F210">
         <v>0.54</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="3">
         <v>20</v>
       </c>
       <c r="H210">
         <v>12</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6633,13 +6634,13 @@
       <c r="F211">
         <v>0.54</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="3">
         <v>20</v>
       </c>
       <c r="H211">
         <v>14</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6662,13 +6663,13 @@
       <c r="F212">
         <v>0.54</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="3">
         <v>20</v>
       </c>
       <c r="H212">
         <v>10</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6691,13 +6692,13 @@
       <c r="F213">
         <v>0.54</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="3">
         <v>20</v>
       </c>
       <c r="H213">
         <v>12</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6720,13 +6721,13 @@
       <c r="F214">
         <v>0.54</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="3">
         <v>20</v>
       </c>
       <c r="H214">
         <v>14</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6749,13 +6750,13 @@
       <c r="F215">
         <v>0.54</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="3">
         <v>20</v>
       </c>
       <c r="H215">
         <v>10</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6778,13 +6779,13 @@
       <c r="F216">
         <v>0.54</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="3">
         <v>20</v>
       </c>
       <c r="H216">
         <v>12</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6807,13 +6808,13 @@
       <c r="F217">
         <v>0.54</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="3">
         <v>20</v>
       </c>
       <c r="H217">
         <v>14</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6836,13 +6837,13 @@
       <c r="F218">
         <v>0.54</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="3">
         <v>20</v>
       </c>
       <c r="H218">
         <v>10</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6865,13 +6866,13 @@
       <c r="F219">
         <v>0.54</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="3">
         <v>20</v>
       </c>
       <c r="H219">
         <v>12</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6894,13 +6895,13 @@
       <c r="F220">
         <v>0.54</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="3">
         <v>20</v>
       </c>
       <c r="H220">
         <v>14</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6923,13 +6924,13 @@
       <c r="F221">
         <v>0.54</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="3">
         <v>20</v>
       </c>
       <c r="H221">
         <v>10</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6952,13 +6953,13 @@
       <c r="F222">
         <v>0.54</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="3">
         <v>20</v>
       </c>
       <c r="H222">
         <v>12</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="3">
         <v>15</v>
       </c>
     </row>
@@ -6981,13 +6982,13 @@
       <c r="F223">
         <v>0.54</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="3">
         <v>20</v>
       </c>
       <c r="H223">
         <v>14</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7010,13 +7011,13 @@
       <c r="F224">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="3">
         <v>20</v>
       </c>
       <c r="H224">
         <v>10</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7039,13 +7040,13 @@
       <c r="F225">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="3">
         <v>20</v>
       </c>
       <c r="H225">
         <v>12</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7068,13 +7069,13 @@
       <c r="F226">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="3">
         <v>20</v>
       </c>
       <c r="H226">
         <v>14</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7097,13 +7098,13 @@
       <c r="F227">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="3">
         <v>20</v>
       </c>
       <c r="H227">
         <v>10</v>
       </c>
-      <c r="I227">
+      <c r="I227" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7126,13 +7127,13 @@
       <c r="F228">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="3">
         <v>20</v>
       </c>
       <c r="H228">
         <v>12</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7155,13 +7156,13 @@
       <c r="F229">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="3">
         <v>20</v>
       </c>
       <c r="H229">
         <v>14</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7184,13 +7185,13 @@
       <c r="F230">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="3">
         <v>20</v>
       </c>
       <c r="H230">
         <v>10</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7213,13 +7214,13 @@
       <c r="F231">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="3">
         <v>20</v>
       </c>
       <c r="H231">
         <v>12</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7242,13 +7243,13 @@
       <c r="F232">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="3">
         <v>20</v>
       </c>
       <c r="H232">
         <v>14</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7271,13 +7272,13 @@
       <c r="F233">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="3">
         <v>20</v>
       </c>
       <c r="H233">
         <v>10</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7300,13 +7301,13 @@
       <c r="F234">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="3">
         <v>20</v>
       </c>
       <c r="H234">
         <v>12</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7329,13 +7330,13 @@
       <c r="F235">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="3">
         <v>20</v>
       </c>
       <c r="H235">
         <v>14</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7358,13 +7359,13 @@
       <c r="F236">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="3">
         <v>20</v>
       </c>
       <c r="H236">
         <v>10</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7387,13 +7388,13 @@
       <c r="F237">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="3">
         <v>20</v>
       </c>
       <c r="H237">
         <v>12</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7416,13 +7417,13 @@
       <c r="F238">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="3">
         <v>20</v>
       </c>
       <c r="H238">
         <v>14</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7445,13 +7446,13 @@
       <c r="F239">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="3">
         <v>20</v>
       </c>
       <c r="H239">
         <v>10</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7474,13 +7475,13 @@
       <c r="F240">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="3">
         <v>20</v>
       </c>
       <c r="H240">
         <v>12</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7503,13 +7504,13 @@
       <c r="F241">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="3">
         <v>20</v>
       </c>
       <c r="H241">
         <v>14</v>
       </c>
-      <c r="I241">
+      <c r="I241" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7532,13 +7533,13 @@
       <c r="F242">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G242">
+      <c r="G242" s="3">
         <v>20</v>
       </c>
       <c r="H242">
         <v>10</v>
       </c>
-      <c r="I242">
+      <c r="I242" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7561,13 +7562,13 @@
       <c r="F243">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G243">
+      <c r="G243" s="3">
         <v>20</v>
       </c>
       <c r="H243">
         <v>12</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7590,13 +7591,13 @@
       <c r="F244">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="3">
         <v>20</v>
       </c>
       <c r="H244">
         <v>14</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7619,13 +7620,13 @@
       <c r="F245">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="3">
         <v>20</v>
       </c>
       <c r="H245">
         <v>10</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7648,13 +7649,13 @@
       <c r="F246">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="3">
         <v>20</v>
       </c>
       <c r="H246">
         <v>12</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7677,13 +7678,13 @@
       <c r="F247">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="3">
         <v>20</v>
       </c>
       <c r="H247">
         <v>14</v>
       </c>
-      <c r="I247">
+      <c r="I247" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7706,13 +7707,13 @@
       <c r="F248">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="3">
         <v>20</v>
       </c>
       <c r="H248">
         <v>10</v>
       </c>
-      <c r="I248">
+      <c r="I248" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7735,13 +7736,13 @@
       <c r="F249">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="3">
         <v>20</v>
       </c>
       <c r="H249">
         <v>12</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7764,13 +7765,13 @@
       <c r="F250">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="3">
         <v>20</v>
       </c>
       <c r="H250">
         <v>14</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7793,13 +7794,13 @@
       <c r="F251">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="3">
         <v>20</v>
       </c>
       <c r="H251">
         <v>10</v>
       </c>
-      <c r="I251">
+      <c r="I251" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7822,13 +7823,13 @@
       <c r="F252">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="3">
         <v>20</v>
       </c>
       <c r="H252">
         <v>12</v>
       </c>
-      <c r="I252">
+      <c r="I252" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7851,13 +7852,13 @@
       <c r="F253">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="3">
         <v>20</v>
       </c>
       <c r="H253">
         <v>14</v>
       </c>
-      <c r="I253">
+      <c r="I253" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7880,13 +7881,13 @@
       <c r="F254">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="3">
         <v>20</v>
       </c>
       <c r="H254">
         <v>10</v>
       </c>
-      <c r="I254">
+      <c r="I254" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7909,13 +7910,13 @@
       <c r="F255">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="3">
         <v>20</v>
       </c>
       <c r="H255">
         <v>12</v>
       </c>
-      <c r="I255">
+      <c r="I255" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7938,13 +7939,13 @@
       <c r="F256">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="3">
         <v>20</v>
       </c>
       <c r="H256">
         <v>14</v>
       </c>
-      <c r="I256">
+      <c r="I256" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7967,13 +7968,13 @@
       <c r="F257">
         <v>0.54</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="3">
         <v>20</v>
       </c>
       <c r="H257">
         <v>10</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="3">
         <v>15</v>
       </c>
     </row>
@@ -7996,13 +7997,13 @@
       <c r="F258">
         <v>0.54</v>
       </c>
-      <c r="G258">
+      <c r="G258" s="3">
         <v>20</v>
       </c>
       <c r="H258">
         <v>12</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8025,13 +8026,13 @@
       <c r="F259">
         <v>0.54</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="3">
         <v>20</v>
       </c>
       <c r="H259">
         <v>14</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8054,13 +8055,13 @@
       <c r="F260">
         <v>0.54</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="3">
         <v>20</v>
       </c>
       <c r="H260">
         <v>10</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8083,13 +8084,13 @@
       <c r="F261">
         <v>0.54</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="3">
         <v>20</v>
       </c>
       <c r="H261">
         <v>12</v>
       </c>
-      <c r="I261">
+      <c r="I261" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8112,13 +8113,13 @@
       <c r="F262">
         <v>0.54</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="3">
         <v>20</v>
       </c>
       <c r="H262">
         <v>14</v>
       </c>
-      <c r="I262">
+      <c r="I262" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8141,13 +8142,13 @@
       <c r="F263">
         <v>0.54</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="3">
         <v>20</v>
       </c>
       <c r="H263">
         <v>10</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8170,13 +8171,13 @@
       <c r="F264">
         <v>0.54</v>
       </c>
-      <c r="G264">
+      <c r="G264" s="3">
         <v>20</v>
       </c>
       <c r="H264">
         <v>12</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8199,13 +8200,13 @@
       <c r="F265">
         <v>0.54</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="3">
         <v>20</v>
       </c>
       <c r="H265">
         <v>14</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8228,13 +8229,13 @@
       <c r="F266">
         <v>0.54</v>
       </c>
-      <c r="G266">
+      <c r="G266" s="3">
         <v>20</v>
       </c>
       <c r="H266">
         <v>10</v>
       </c>
-      <c r="I266">
+      <c r="I266" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8257,13 +8258,13 @@
       <c r="F267">
         <v>0.54</v>
       </c>
-      <c r="G267">
+      <c r="G267" s="3">
         <v>20</v>
       </c>
       <c r="H267">
         <v>12</v>
       </c>
-      <c r="I267">
+      <c r="I267" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8286,13 +8287,13 @@
       <c r="F268">
         <v>0.54</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="3">
         <v>20</v>
       </c>
       <c r="H268">
         <v>14</v>
       </c>
-      <c r="I268">
+      <c r="I268" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8315,13 +8316,13 @@
       <c r="F269">
         <v>0.54</v>
       </c>
-      <c r="G269">
+      <c r="G269" s="3">
         <v>20</v>
       </c>
       <c r="H269">
         <v>10</v>
       </c>
-      <c r="I269">
+      <c r="I269" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8344,13 +8345,13 @@
       <c r="F270">
         <v>0.54</v>
       </c>
-      <c r="G270">
+      <c r="G270" s="3">
         <v>20</v>
       </c>
       <c r="H270">
         <v>12</v>
       </c>
-      <c r="I270">
+      <c r="I270" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8373,13 +8374,13 @@
       <c r="F271">
         <v>0.54</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="3">
         <v>20</v>
       </c>
       <c r="H271">
         <v>14</v>
       </c>
-      <c r="I271">
+      <c r="I271" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8402,13 +8403,13 @@
       <c r="F272">
         <v>0.54</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="3">
         <v>20</v>
       </c>
       <c r="H272">
         <v>10</v>
       </c>
-      <c r="I272">
+      <c r="I272" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8431,13 +8432,13 @@
       <c r="F273">
         <v>0.54</v>
       </c>
-      <c r="G273">
+      <c r="G273" s="3">
         <v>20</v>
       </c>
       <c r="H273">
         <v>12</v>
       </c>
-      <c r="I273">
+      <c r="I273" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8460,13 +8461,13 @@
       <c r="F274">
         <v>0.54</v>
       </c>
-      <c r="G274">
+      <c r="G274" s="3">
         <v>20</v>
       </c>
       <c r="H274">
         <v>14</v>
       </c>
-      <c r="I274">
+      <c r="I274" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8489,13 +8490,13 @@
       <c r="F275">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G275">
+      <c r="G275" s="3">
         <v>20</v>
       </c>
       <c r="H275">
         <v>10</v>
       </c>
-      <c r="I275">
+      <c r="I275" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8518,13 +8519,13 @@
       <c r="F276">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G276">
+      <c r="G276" s="3">
         <v>20</v>
       </c>
       <c r="H276">
         <v>12</v>
       </c>
-      <c r="I276">
+      <c r="I276" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8547,13 +8548,13 @@
       <c r="F277">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G277">
+      <c r="G277" s="3">
         <v>20</v>
       </c>
       <c r="H277">
         <v>14</v>
       </c>
-      <c r="I277">
+      <c r="I277" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8576,13 +8577,13 @@
       <c r="F278">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G278">
+      <c r="G278" s="3">
         <v>20</v>
       </c>
       <c r="H278">
         <v>10</v>
       </c>
-      <c r="I278">
+      <c r="I278" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8605,13 +8606,13 @@
       <c r="F279">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G279">
+      <c r="G279" s="3">
         <v>20</v>
       </c>
       <c r="H279">
         <v>12</v>
       </c>
-      <c r="I279">
+      <c r="I279" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8634,13 +8635,13 @@
       <c r="F280">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G280">
+      <c r="G280" s="3">
         <v>20</v>
       </c>
       <c r="H280">
         <v>14</v>
       </c>
-      <c r="I280">
+      <c r="I280" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8663,13 +8664,13 @@
       <c r="F281">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="3">
         <v>20</v>
       </c>
       <c r="H281">
         <v>10</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8692,13 +8693,13 @@
       <c r="F282">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G282">
+      <c r="G282" s="3">
         <v>20</v>
       </c>
       <c r="H282">
         <v>12</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8721,13 +8722,13 @@
       <c r="F283">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G283">
+      <c r="G283" s="3">
         <v>20</v>
       </c>
       <c r="H283">
         <v>14</v>
       </c>
-      <c r="I283">
+      <c r="I283" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8750,13 +8751,13 @@
       <c r="F284">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G284">
+      <c r="G284" s="3">
         <v>20</v>
       </c>
       <c r="H284">
         <v>10</v>
       </c>
-      <c r="I284">
+      <c r="I284" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8779,13 +8780,13 @@
       <c r="F285">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G285">
+      <c r="G285" s="3">
         <v>20</v>
       </c>
       <c r="H285">
         <v>12</v>
       </c>
-      <c r="I285">
+      <c r="I285" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8808,13 +8809,13 @@
       <c r="F286">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G286">
+      <c r="G286" s="3">
         <v>20</v>
       </c>
       <c r="H286">
         <v>14</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8837,13 +8838,13 @@
       <c r="F287">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G287">
+      <c r="G287" s="3">
         <v>20</v>
       </c>
       <c r="H287">
         <v>10</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8866,13 +8867,13 @@
       <c r="F288">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G288">
+      <c r="G288" s="3">
         <v>20</v>
       </c>
       <c r="H288">
         <v>12</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8895,13 +8896,13 @@
       <c r="F289">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G289">
+      <c r="G289" s="3">
         <v>20</v>
       </c>
       <c r="H289">
         <v>14</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8924,13 +8925,13 @@
       <c r="F290">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G290">
+      <c r="G290" s="3">
         <v>20</v>
       </c>
       <c r="H290">
         <v>10</v>
       </c>
-      <c r="I290">
+      <c r="I290" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8953,13 +8954,13 @@
       <c r="F291">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G291">
+      <c r="G291" s="3">
         <v>20</v>
       </c>
       <c r="H291">
         <v>12</v>
       </c>
-      <c r="I291">
+      <c r="I291" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8982,13 +8983,13 @@
       <c r="F292">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G292">
+      <c r="G292" s="3">
         <v>20</v>
       </c>
       <c r="H292">
         <v>14</v>
       </c>
-      <c r="I292">
+      <c r="I292" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9011,13 +9012,13 @@
       <c r="F293">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G293">
+      <c r="G293" s="3">
         <v>20</v>
       </c>
       <c r="H293">
         <v>10</v>
       </c>
-      <c r="I293">
+      <c r="I293" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9040,13 +9041,13 @@
       <c r="F294">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G294">
+      <c r="G294" s="3">
         <v>20</v>
       </c>
       <c r="H294">
         <v>12</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9069,13 +9070,13 @@
       <c r="F295">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G295">
+      <c r="G295" s="3">
         <v>20</v>
       </c>
       <c r="H295">
         <v>14</v>
       </c>
-      <c r="I295">
+      <c r="I295" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9098,13 +9099,13 @@
       <c r="F296">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G296">
+      <c r="G296" s="3">
         <v>20</v>
       </c>
       <c r="H296">
         <v>10</v>
       </c>
-      <c r="I296">
+      <c r="I296" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9127,13 +9128,13 @@
       <c r="F297">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G297">
+      <c r="G297" s="3">
         <v>20</v>
       </c>
       <c r="H297">
         <v>12</v>
       </c>
-      <c r="I297">
+      <c r="I297" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9156,13 +9157,13 @@
       <c r="F298">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G298">
+      <c r="G298" s="3">
         <v>20</v>
       </c>
       <c r="H298">
         <v>14</v>
       </c>
-      <c r="I298">
+      <c r="I298" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9185,13 +9186,13 @@
       <c r="F299">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="3">
         <v>20</v>
       </c>
       <c r="H299">
         <v>10</v>
       </c>
-      <c r="I299">
+      <c r="I299" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9214,13 +9215,13 @@
       <c r="F300">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="3">
         <v>20</v>
       </c>
       <c r="H300">
         <v>12</v>
       </c>
-      <c r="I300">
+      <c r="I300" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9243,13 +9244,13 @@
       <c r="F301">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="3">
         <v>20</v>
       </c>
       <c r="H301">
         <v>14</v>
       </c>
-      <c r="I301">
+      <c r="I301" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9272,13 +9273,13 @@
       <c r="F302">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G302">
+      <c r="G302" s="3">
         <v>20</v>
       </c>
       <c r="H302">
         <v>10</v>
       </c>
-      <c r="I302">
+      <c r="I302" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9301,13 +9302,13 @@
       <c r="F303">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G303">
+      <c r="G303" s="3">
         <v>20</v>
       </c>
       <c r="H303">
         <v>12</v>
       </c>
-      <c r="I303">
+      <c r="I303" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9330,13 +9331,13 @@
       <c r="F304">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="3">
         <v>20</v>
       </c>
       <c r="H304">
         <v>14</v>
       </c>
-      <c r="I304">
+      <c r="I304" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9359,13 +9360,13 @@
       <c r="F305">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="3">
         <v>20</v>
       </c>
       <c r="H305">
         <v>10</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9388,13 +9389,13 @@
       <c r="F306">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="3">
         <v>20</v>
       </c>
       <c r="H306">
         <v>12</v>
       </c>
-      <c r="I306">
+      <c r="I306" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9417,13 +9418,13 @@
       <c r="F307">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="3">
         <v>20</v>
       </c>
       <c r="H307">
         <v>14</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9446,13 +9447,13 @@
       <c r="F308">
         <v>0.54</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="3">
         <v>20</v>
       </c>
       <c r="H308">
         <v>10</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9475,13 +9476,13 @@
       <c r="F309">
         <v>0.54</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="3">
         <v>20</v>
       </c>
       <c r="H309">
         <v>12</v>
       </c>
-      <c r="I309">
+      <c r="I309" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9504,13 +9505,13 @@
       <c r="F310">
         <v>0.54</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="3">
         <v>20</v>
       </c>
       <c r="H310">
         <v>14</v>
       </c>
-      <c r="I310">
+      <c r="I310" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9533,13 +9534,13 @@
       <c r="F311">
         <v>0.54</v>
       </c>
-      <c r="G311">
+      <c r="G311" s="3">
         <v>20</v>
       </c>
       <c r="H311">
         <v>10</v>
       </c>
-      <c r="I311">
+      <c r="I311" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9562,13 +9563,13 @@
       <c r="F312">
         <v>0.54</v>
       </c>
-      <c r="G312">
+      <c r="G312" s="3">
         <v>20</v>
       </c>
       <c r="H312">
         <v>12</v>
       </c>
-      <c r="I312">
+      <c r="I312" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9591,13 +9592,13 @@
       <c r="F313">
         <v>0.54</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="3">
         <v>20</v>
       </c>
       <c r="H313">
         <v>14</v>
       </c>
-      <c r="I313">
+      <c r="I313" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9620,13 +9621,13 @@
       <c r="F314">
         <v>0.54</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="3">
         <v>20</v>
       </c>
       <c r="H314">
         <v>10</v>
       </c>
-      <c r="I314">
+      <c r="I314" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9649,13 +9650,13 @@
       <c r="F315">
         <v>0.54</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="3">
         <v>20</v>
       </c>
       <c r="H315">
         <v>12</v>
       </c>
-      <c r="I315">
+      <c r="I315" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9678,13 +9679,13 @@
       <c r="F316">
         <v>0.54</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="3">
         <v>20</v>
       </c>
       <c r="H316">
         <v>14</v>
       </c>
-      <c r="I316">
+      <c r="I316" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9707,13 +9708,13 @@
       <c r="F317">
         <v>0.54</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="3">
         <v>20</v>
       </c>
       <c r="H317">
         <v>10</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9736,13 +9737,13 @@
       <c r="F318">
         <v>0.54</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="3">
         <v>20</v>
       </c>
       <c r="H318">
         <v>12</v>
       </c>
-      <c r="I318">
+      <c r="I318" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9765,13 +9766,13 @@
       <c r="F319">
         <v>0.54</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="3">
         <v>20</v>
       </c>
       <c r="H319">
         <v>14</v>
       </c>
-      <c r="I319">
+      <c r="I319" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9794,13 +9795,13 @@
       <c r="F320">
         <v>0.54</v>
       </c>
-      <c r="G320">
+      <c r="G320" s="3">
         <v>20</v>
       </c>
       <c r="H320">
         <v>10</v>
       </c>
-      <c r="I320">
+      <c r="I320" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9823,13 +9824,13 @@
       <c r="F321">
         <v>0.54</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="3">
         <v>20</v>
       </c>
       <c r="H321">
         <v>12</v>
       </c>
-      <c r="I321">
+      <c r="I321" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9852,13 +9853,13 @@
       <c r="F322">
         <v>0.54</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="3">
         <v>20</v>
       </c>
       <c r="H322">
         <v>14</v>
       </c>
-      <c r="I322">
+      <c r="I322" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9881,13 +9882,13 @@
       <c r="F323">
         <v>0.54</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="3">
         <v>20</v>
       </c>
       <c r="H323">
         <v>10</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9910,13 +9911,13 @@
       <c r="F324">
         <v>0.54</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="3">
         <v>20</v>
       </c>
       <c r="H324">
         <v>12</v>
       </c>
-      <c r="I324">
+      <c r="I324" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9939,13 +9940,13 @@
       <c r="F325">
         <v>0.54</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="3">
         <v>20</v>
       </c>
       <c r="H325">
         <v>14</v>
       </c>
-      <c r="I325">
+      <c r="I325" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9968,13 +9969,13 @@
       <c r="F326">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="3">
         <v>20</v>
       </c>
       <c r="H326">
         <v>10</v>
       </c>
-      <c r="I326">
+      <c r="I326" s="3">
         <v>15</v>
       </c>
     </row>
@@ -9997,13 +9998,13 @@
       <c r="F327">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="3">
         <v>20</v>
       </c>
       <c r="H327">
         <v>12</v>
       </c>
-      <c r="I327">
+      <c r="I327" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10026,13 +10027,13 @@
       <c r="F328">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="3">
         <v>20</v>
       </c>
       <c r="H328">
         <v>14</v>
       </c>
-      <c r="I328">
+      <c r="I328" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10055,13 +10056,13 @@
       <c r="F329">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="3">
         <v>20</v>
       </c>
       <c r="H329">
         <v>10</v>
       </c>
-      <c r="I329">
+      <c r="I329" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10084,13 +10085,13 @@
       <c r="F330">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="3">
         <v>20</v>
       </c>
       <c r="H330">
         <v>12</v>
       </c>
-      <c r="I330">
+      <c r="I330" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10113,13 +10114,13 @@
       <c r="F331">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="3">
         <v>20</v>
       </c>
       <c r="H331">
         <v>14</v>
       </c>
-      <c r="I331">
+      <c r="I331" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10142,13 +10143,13 @@
       <c r="F332">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="3">
         <v>20</v>
       </c>
       <c r="H332">
         <v>10</v>
       </c>
-      <c r="I332">
+      <c r="I332" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10171,13 +10172,13 @@
       <c r="F333">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="3">
         <v>20</v>
       </c>
       <c r="H333">
         <v>12</v>
       </c>
-      <c r="I333">
+      <c r="I333" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10200,13 +10201,13 @@
       <c r="F334">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G334">
+      <c r="G334" s="3">
         <v>20</v>
       </c>
       <c r="H334">
         <v>14</v>
       </c>
-      <c r="I334">
+      <c r="I334" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10229,13 +10230,13 @@
       <c r="F335">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="3">
         <v>20</v>
       </c>
       <c r="H335">
         <v>10</v>
       </c>
-      <c r="I335">
+      <c r="I335" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10258,13 +10259,13 @@
       <c r="F336">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G336">
+      <c r="G336" s="3">
         <v>20</v>
       </c>
       <c r="H336">
         <v>12</v>
       </c>
-      <c r="I336">
+      <c r="I336" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10287,13 +10288,13 @@
       <c r="F337">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G337">
+      <c r="G337" s="3">
         <v>20</v>
       </c>
       <c r="H337">
         <v>14</v>
       </c>
-      <c r="I337">
+      <c r="I337" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10316,13 +10317,13 @@
       <c r="F338">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G338">
+      <c r="G338" s="3">
         <v>20</v>
       </c>
       <c r="H338">
         <v>10</v>
       </c>
-      <c r="I338">
+      <c r="I338" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10345,13 +10346,13 @@
       <c r="F339">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="3">
         <v>20</v>
       </c>
       <c r="H339">
         <v>12</v>
       </c>
-      <c r="I339">
+      <c r="I339" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10374,13 +10375,13 @@
       <c r="F340">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="3">
         <v>20</v>
       </c>
       <c r="H340">
         <v>14</v>
       </c>
-      <c r="I340">
+      <c r="I340" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10403,13 +10404,13 @@
       <c r="F341">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G341">
+      <c r="G341" s="3">
         <v>20</v>
       </c>
       <c r="H341">
         <v>10</v>
       </c>
-      <c r="I341">
+      <c r="I341" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10432,13 +10433,13 @@
       <c r="F342">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G342">
+      <c r="G342" s="3">
         <v>20</v>
       </c>
       <c r="H342">
         <v>12</v>
       </c>
-      <c r="I342">
+      <c r="I342" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10461,13 +10462,13 @@
       <c r="F343">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G343">
+      <c r="G343" s="3">
         <v>20</v>
       </c>
       <c r="H343">
         <v>14</v>
       </c>
-      <c r="I343">
+      <c r="I343" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10490,13 +10491,13 @@
       <c r="F344">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G344">
+      <c r="G344" s="3">
         <v>20</v>
       </c>
       <c r="H344">
         <v>10</v>
       </c>
-      <c r="I344">
+      <c r="I344" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10519,13 +10520,13 @@
       <c r="F345">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="3">
         <v>20</v>
       </c>
       <c r="H345">
         <v>12</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10548,13 +10549,13 @@
       <c r="F346">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="3">
         <v>20</v>
       </c>
       <c r="H346">
         <v>14</v>
       </c>
-      <c r="I346">
+      <c r="I346" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10577,13 +10578,13 @@
       <c r="F347">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="3">
         <v>20</v>
       </c>
       <c r="H347">
         <v>10</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10606,13 +10607,13 @@
       <c r="F348">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="3">
         <v>20</v>
       </c>
       <c r="H348">
         <v>12</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10635,13 +10636,13 @@
       <c r="F349">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="3">
         <v>20</v>
       </c>
       <c r="H349">
         <v>14</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10664,13 +10665,13 @@
       <c r="F350">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="3">
         <v>20</v>
       </c>
       <c r="H350">
         <v>10</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10693,13 +10694,13 @@
       <c r="F351">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="3">
         <v>20</v>
       </c>
       <c r="H351">
         <v>12</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10722,13 +10723,13 @@
       <c r="F352">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="3">
         <v>20</v>
       </c>
       <c r="H352">
         <v>14</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10751,13 +10752,13 @@
       <c r="F353">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="3">
         <v>20</v>
       </c>
       <c r="H353">
         <v>10</v>
       </c>
-      <c r="I353">
+      <c r="I353" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10780,13 +10781,13 @@
       <c r="F354">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="3">
         <v>20</v>
       </c>
       <c r="H354">
         <v>12</v>
       </c>
-      <c r="I354">
+      <c r="I354" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10809,13 +10810,13 @@
       <c r="F355">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="3">
         <v>20</v>
       </c>
       <c r="H355">
         <v>14</v>
       </c>
-      <c r="I355">
+      <c r="I355" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10838,13 +10839,13 @@
       <c r="F356">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="3">
         <v>20</v>
       </c>
       <c r="H356">
         <v>10</v>
       </c>
-      <c r="I356">
+      <c r="I356" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10867,13 +10868,13 @@
       <c r="F357">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G357">
+      <c r="G357" s="3">
         <v>20</v>
       </c>
       <c r="H357">
         <v>12</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10896,13 +10897,13 @@
       <c r="F358">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G358">
+      <c r="G358" s="3">
         <v>20</v>
       </c>
       <c r="H358">
         <v>14</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10925,13 +10926,13 @@
       <c r="F359">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G359">
+      <c r="G359" s="3">
         <v>20</v>
       </c>
       <c r="H359">
         <v>10</v>
       </c>
-      <c r="I359">
+      <c r="I359" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10954,13 +10955,13 @@
       <c r="F360">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G360">
+      <c r="G360" s="3">
         <v>20</v>
       </c>
       <c r="H360">
         <v>12</v>
       </c>
-      <c r="I360">
+      <c r="I360" s="3">
         <v>15</v>
       </c>
     </row>
@@ -10983,13 +10984,13 @@
       <c r="F361">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G361">
+      <c r="G361" s="3">
         <v>20</v>
       </c>
       <c r="H361">
         <v>14</v>
       </c>
-      <c r="I361">
+      <c r="I361" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11012,13 +11013,13 @@
       <c r="F362">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="3">
         <v>20</v>
       </c>
       <c r="H362">
         <v>10</v>
       </c>
-      <c r="I362">
+      <c r="I362" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11041,13 +11042,13 @@
       <c r="F363">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="3">
         <v>20</v>
       </c>
       <c r="H363">
         <v>12</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11070,13 +11071,13 @@
       <c r="F364">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="3">
         <v>20</v>
       </c>
       <c r="H364">
         <v>14</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11099,13 +11100,13 @@
       <c r="F365">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="3">
         <v>20</v>
       </c>
       <c r="H365">
         <v>10</v>
       </c>
-      <c r="I365">
+      <c r="I365" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11128,13 +11129,13 @@
       <c r="F366">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G366">
+      <c r="G366" s="3">
         <v>20</v>
       </c>
       <c r="H366">
         <v>12</v>
       </c>
-      <c r="I366">
+      <c r="I366" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11157,13 +11158,13 @@
       <c r="F367">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G367">
+      <c r="G367" s="3">
         <v>20</v>
       </c>
       <c r="H367">
         <v>14</v>
       </c>
-      <c r="I367">
+      <c r="I367" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11186,13 +11187,13 @@
       <c r="F368">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G368">
+      <c r="G368" s="3">
         <v>20</v>
       </c>
       <c r="H368">
         <v>10</v>
       </c>
-      <c r="I368">
+      <c r="I368" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11215,13 +11216,13 @@
       <c r="F369">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="3">
         <v>20</v>
       </c>
       <c r="H369">
         <v>12</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11244,13 +11245,13 @@
       <c r="F370">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G370">
+      <c r="G370" s="3">
         <v>20</v>
       </c>
       <c r="H370">
         <v>14</v>
       </c>
-      <c r="I370">
+      <c r="I370" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11273,13 +11274,13 @@
       <c r="F371">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="3">
         <v>20</v>
       </c>
       <c r="H371">
         <v>10</v>
       </c>
-      <c r="I371">
+      <c r="I371" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11302,13 +11303,13 @@
       <c r="F372">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G372">
+      <c r="G372" s="3">
         <v>20</v>
       </c>
       <c r="H372">
         <v>12</v>
       </c>
-      <c r="I372">
+      <c r="I372" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11331,13 +11332,13 @@
       <c r="F373">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G373">
+      <c r="G373" s="3">
         <v>20</v>
       </c>
       <c r="H373">
         <v>14</v>
       </c>
-      <c r="I373">
+      <c r="I373" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11360,13 +11361,13 @@
       <c r="F374">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G374">
+      <c r="G374" s="3">
         <v>20</v>
       </c>
       <c r="H374">
         <v>10</v>
       </c>
-      <c r="I374">
+      <c r="I374" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11389,13 +11390,13 @@
       <c r="F375">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G375">
+      <c r="G375" s="3">
         <v>20</v>
       </c>
       <c r="H375">
         <v>12</v>
       </c>
-      <c r="I375">
+      <c r="I375" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11418,13 +11419,13 @@
       <c r="F376">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G376">
+      <c r="G376" s="3">
         <v>20</v>
       </c>
       <c r="H376">
         <v>14</v>
       </c>
-      <c r="I376">
+      <c r="I376" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11447,13 +11448,13 @@
       <c r="F377">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G377">
+      <c r="G377" s="3">
         <v>20</v>
       </c>
       <c r="H377">
         <v>10</v>
       </c>
-      <c r="I377">
+      <c r="I377" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11476,13 +11477,13 @@
       <c r="F378">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G378">
+      <c r="G378" s="3">
         <v>20</v>
       </c>
       <c r="H378">
         <v>12</v>
       </c>
-      <c r="I378">
+      <c r="I378" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11505,13 +11506,13 @@
       <c r="F379">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G379">
+      <c r="G379" s="3">
         <v>20</v>
       </c>
       <c r="H379">
         <v>14</v>
       </c>
-      <c r="I379">
+      <c r="I379" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11534,13 +11535,13 @@
       <c r="F380">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G380">
+      <c r="G380" s="3">
         <v>20</v>
       </c>
       <c r="H380">
         <v>10</v>
       </c>
-      <c r="I380">
+      <c r="I380" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11563,13 +11564,13 @@
       <c r="F381">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G381">
+      <c r="G381" s="3">
         <v>20</v>
       </c>
       <c r="H381">
         <v>12</v>
       </c>
-      <c r="I381">
+      <c r="I381" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11592,13 +11593,13 @@
       <c r="F382">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G382">
+      <c r="G382" s="3">
         <v>20</v>
       </c>
       <c r="H382">
         <v>14</v>
       </c>
-      <c r="I382">
+      <c r="I382" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11621,13 +11622,13 @@
       <c r="F383">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G383">
+      <c r="G383" s="3">
         <v>20</v>
       </c>
       <c r="H383">
         <v>10</v>
       </c>
-      <c r="I383">
+      <c r="I383" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11650,13 +11651,13 @@
       <c r="F384">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G384">
+      <c r="G384" s="3">
         <v>20</v>
       </c>
       <c r="H384">
         <v>12</v>
       </c>
-      <c r="I384">
+      <c r="I384" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11679,13 +11680,13 @@
       <c r="F385">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G385">
+      <c r="G385" s="3">
         <v>20</v>
       </c>
       <c r="H385">
         <v>14</v>
       </c>
-      <c r="I385">
+      <c r="I385" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11708,13 +11709,13 @@
       <c r="F386">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G386">
+      <c r="G386" s="3">
         <v>20</v>
       </c>
       <c r="H386">
         <v>10</v>
       </c>
-      <c r="I386">
+      <c r="I386" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11737,13 +11738,13 @@
       <c r="F387">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G387">
+      <c r="G387" s="3">
         <v>20</v>
       </c>
       <c r="H387">
         <v>12</v>
       </c>
-      <c r="I387">
+      <c r="I387" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11766,13 +11767,13 @@
       <c r="F388">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G388">
+      <c r="G388" s="3">
         <v>20</v>
       </c>
       <c r="H388">
         <v>14</v>
       </c>
-      <c r="I388">
+      <c r="I388" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11795,13 +11796,13 @@
       <c r="F389">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G389">
+      <c r="G389" s="3">
         <v>20</v>
       </c>
       <c r="H389">
         <v>10</v>
       </c>
-      <c r="I389">
+      <c r="I389" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11824,13 +11825,13 @@
       <c r="F390">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G390">
+      <c r="G390" s="3">
         <v>20</v>
       </c>
       <c r="H390">
         <v>12</v>
       </c>
-      <c r="I390">
+      <c r="I390" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11853,13 +11854,13 @@
       <c r="F391">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G391">
+      <c r="G391" s="3">
         <v>20</v>
       </c>
       <c r="H391">
         <v>14</v>
       </c>
-      <c r="I391">
+      <c r="I391" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11882,13 +11883,13 @@
       <c r="F392">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G392">
+      <c r="G392" s="3">
         <v>20</v>
       </c>
       <c r="H392">
         <v>10</v>
       </c>
-      <c r="I392">
+      <c r="I392" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11911,13 +11912,13 @@
       <c r="F393">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G393">
+      <c r="G393" s="3">
         <v>20</v>
       </c>
       <c r="H393">
         <v>12</v>
       </c>
-      <c r="I393">
+      <c r="I393" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11940,13 +11941,13 @@
       <c r="F394">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G394">
+      <c r="G394" s="3">
         <v>20</v>
       </c>
       <c r="H394">
         <v>14</v>
       </c>
-      <c r="I394">
+      <c r="I394" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11969,13 +11970,13 @@
       <c r="F395">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G395">
+      <c r="G395" s="3">
         <v>20</v>
       </c>
       <c r="H395">
         <v>10</v>
       </c>
-      <c r="I395">
+      <c r="I395" s="3">
         <v>15</v>
       </c>
     </row>
@@ -11998,13 +11999,13 @@
       <c r="F396">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G396">
+      <c r="G396" s="3">
         <v>20</v>
       </c>
       <c r="H396">
         <v>12</v>
       </c>
-      <c r="I396">
+      <c r="I396" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12027,13 +12028,13 @@
       <c r="F397">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="3">
         <v>20</v>
       </c>
       <c r="H397">
         <v>14</v>
       </c>
-      <c r="I397">
+      <c r="I397" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12056,13 +12057,13 @@
       <c r="F398">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G398">
+      <c r="G398" s="3">
         <v>20</v>
       </c>
       <c r="H398">
         <v>10</v>
       </c>
-      <c r="I398">
+      <c r="I398" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12085,13 +12086,13 @@
       <c r="F399">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G399">
+      <c r="G399" s="3">
         <v>20</v>
       </c>
       <c r="H399">
         <v>12</v>
       </c>
-      <c r="I399">
+      <c r="I399" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12114,13 +12115,13 @@
       <c r="F400">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G400">
+      <c r="G400" s="3">
         <v>20</v>
       </c>
       <c r="H400">
         <v>14</v>
       </c>
-      <c r="I400">
+      <c r="I400" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12143,13 +12144,13 @@
       <c r="F401">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G401">
+      <c r="G401" s="3">
         <v>20</v>
       </c>
       <c r="H401">
         <v>10</v>
       </c>
-      <c r="I401">
+      <c r="I401" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12172,13 +12173,13 @@
       <c r="F402">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G402">
+      <c r="G402" s="3">
         <v>20</v>
       </c>
       <c r="H402">
         <v>12</v>
       </c>
-      <c r="I402">
+      <c r="I402" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12201,13 +12202,13 @@
       <c r="F403">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G403">
+      <c r="G403" s="3">
         <v>20</v>
       </c>
       <c r="H403">
         <v>14</v>
       </c>
-      <c r="I403">
+      <c r="I403" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12230,13 +12231,13 @@
       <c r="F404">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G404">
+      <c r="G404" s="3">
         <v>20</v>
       </c>
       <c r="H404">
         <v>10</v>
       </c>
-      <c r="I404">
+      <c r="I404" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12259,13 +12260,13 @@
       <c r="F405">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G405">
+      <c r="G405" s="3">
         <v>20</v>
       </c>
       <c r="H405">
         <v>12</v>
       </c>
-      <c r="I405">
+      <c r="I405" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12288,13 +12289,13 @@
       <c r="F406">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G406">
+      <c r="G406" s="3">
         <v>20</v>
       </c>
       <c r="H406">
         <v>14</v>
       </c>
-      <c r="I406">
+      <c r="I406" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12317,13 +12318,13 @@
       <c r="F407">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="3">
         <v>20</v>
       </c>
       <c r="H407">
         <v>10</v>
       </c>
-      <c r="I407">
+      <c r="I407" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12346,13 +12347,13 @@
       <c r="F408">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G408">
+      <c r="G408" s="3">
         <v>20</v>
       </c>
       <c r="H408">
         <v>12</v>
       </c>
-      <c r="I408">
+      <c r="I408" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12375,13 +12376,13 @@
       <c r="F409">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="3">
         <v>20</v>
       </c>
       <c r="H409">
         <v>14</v>
       </c>
-      <c r="I409">
+      <c r="I409" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12404,13 +12405,13 @@
       <c r="F410">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G410">
+      <c r="G410" s="3">
         <v>20</v>
       </c>
       <c r="H410">
         <v>10</v>
       </c>
-      <c r="I410">
+      <c r="I410" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12433,13 +12434,13 @@
       <c r="F411">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G411">
+      <c r="G411" s="3">
         <v>20</v>
       </c>
       <c r="H411">
         <v>12</v>
       </c>
-      <c r="I411">
+      <c r="I411" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12462,13 +12463,13 @@
       <c r="F412">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G412">
+      <c r="G412" s="3">
         <v>20</v>
       </c>
       <c r="H412">
         <v>14</v>
       </c>
-      <c r="I412">
+      <c r="I412" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12491,13 +12492,13 @@
       <c r="F413">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="3">
         <v>20</v>
       </c>
       <c r="H413">
         <v>10</v>
       </c>
-      <c r="I413">
+      <c r="I413" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12520,13 +12521,13 @@
       <c r="F414">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="3">
         <v>20</v>
       </c>
       <c r="H414">
         <v>12</v>
       </c>
-      <c r="I414">
+      <c r="I414" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12549,13 +12550,13 @@
       <c r="F415">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="3">
         <v>20</v>
       </c>
       <c r="H415">
         <v>14</v>
       </c>
-      <c r="I415">
+      <c r="I415" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12578,13 +12579,13 @@
       <c r="F416">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="3">
         <v>20</v>
       </c>
       <c r="H416">
         <v>10</v>
       </c>
-      <c r="I416">
+      <c r="I416" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12607,13 +12608,13 @@
       <c r="F417">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G417">
+      <c r="G417" s="3">
         <v>20</v>
       </c>
       <c r="H417">
         <v>12</v>
       </c>
-      <c r="I417">
+      <c r="I417" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12636,13 +12637,13 @@
       <c r="F418">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G418">
+      <c r="G418" s="3">
         <v>20</v>
       </c>
       <c r="H418">
         <v>14</v>
       </c>
-      <c r="I418">
+      <c r="I418" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12665,13 +12666,13 @@
       <c r="F419">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G419">
+      <c r="G419" s="3">
         <v>20</v>
       </c>
       <c r="H419">
         <v>10</v>
       </c>
-      <c r="I419">
+      <c r="I419" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12694,13 +12695,13 @@
       <c r="F420">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G420">
+      <c r="G420" s="3">
         <v>20</v>
       </c>
       <c r="H420">
         <v>12</v>
       </c>
-      <c r="I420">
+      <c r="I420" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12723,13 +12724,13 @@
       <c r="F421">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G421">
+      <c r="G421" s="3">
         <v>20</v>
       </c>
       <c r="H421">
         <v>14</v>
       </c>
-      <c r="I421">
+      <c r="I421" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12752,13 +12753,13 @@
       <c r="F422">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G422">
+      <c r="G422" s="3">
         <v>20</v>
       </c>
       <c r="H422">
         <v>10</v>
       </c>
-      <c r="I422">
+      <c r="I422" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12781,13 +12782,13 @@
       <c r="F423">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G423">
+      <c r="G423" s="3">
         <v>20</v>
       </c>
       <c r="H423">
         <v>12</v>
       </c>
-      <c r="I423">
+      <c r="I423" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12810,13 +12811,13 @@
       <c r="F424">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G424">
+      <c r="G424" s="3">
         <v>20</v>
       </c>
       <c r="H424">
         <v>14</v>
       </c>
-      <c r="I424">
+      <c r="I424" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12839,13 +12840,13 @@
       <c r="F425">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G425">
+      <c r="G425" s="3">
         <v>20</v>
       </c>
       <c r="H425">
         <v>10</v>
       </c>
-      <c r="I425">
+      <c r="I425" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12868,13 +12869,13 @@
       <c r="F426">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G426">
+      <c r="G426" s="3">
         <v>20</v>
       </c>
       <c r="H426">
         <v>12</v>
       </c>
-      <c r="I426">
+      <c r="I426" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12897,13 +12898,13 @@
       <c r="F427">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G427">
+      <c r="G427" s="3">
         <v>20</v>
       </c>
       <c r="H427">
         <v>14</v>
       </c>
-      <c r="I427">
+      <c r="I427" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12926,13 +12927,13 @@
       <c r="F428">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G428">
+      <c r="G428" s="3">
         <v>20</v>
       </c>
       <c r="H428">
         <v>10</v>
       </c>
-      <c r="I428">
+      <c r="I428" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12955,13 +12956,13 @@
       <c r="F429">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G429">
+      <c r="G429" s="3">
         <v>20</v>
       </c>
       <c r="H429">
         <v>12</v>
       </c>
-      <c r="I429">
+      <c r="I429" s="3">
         <v>15</v>
       </c>
     </row>
@@ -12984,13 +12985,13 @@
       <c r="F430">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G430">
+      <c r="G430" s="3">
         <v>20</v>
       </c>
       <c r="H430">
         <v>14</v>
       </c>
-      <c r="I430">
+      <c r="I430" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13013,13 +13014,13 @@
       <c r="F431">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G431">
+      <c r="G431" s="3">
         <v>20</v>
       </c>
       <c r="H431">
         <v>10</v>
       </c>
-      <c r="I431">
+      <c r="I431" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13042,13 +13043,13 @@
       <c r="F432">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G432">
+      <c r="G432" s="3">
         <v>20</v>
       </c>
       <c r="H432">
         <v>12</v>
       </c>
-      <c r="I432">
+      <c r="I432" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13071,13 +13072,13 @@
       <c r="F433">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G433">
+      <c r="G433" s="3">
         <v>20</v>
       </c>
       <c r="H433">
         <v>14</v>
       </c>
-      <c r="I433">
+      <c r="I433" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13100,13 +13101,13 @@
       <c r="F434">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G434">
+      <c r="G434" s="3">
         <v>20</v>
       </c>
       <c r="H434">
         <v>10</v>
       </c>
-      <c r="I434">
+      <c r="I434" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13129,13 +13130,13 @@
       <c r="F435">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G435">
+      <c r="G435" s="3">
         <v>20</v>
       </c>
       <c r="H435">
         <v>12</v>
       </c>
-      <c r="I435">
+      <c r="I435" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13158,13 +13159,13 @@
       <c r="F436">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G436">
+      <c r="G436" s="3">
         <v>20</v>
       </c>
       <c r="H436">
         <v>14</v>
       </c>
-      <c r="I436">
+      <c r="I436" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13187,13 +13188,13 @@
       <c r="F437">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G437">
+      <c r="G437" s="3">
         <v>20</v>
       </c>
       <c r="H437">
         <v>10</v>
       </c>
-      <c r="I437">
+      <c r="I437" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13216,13 +13217,13 @@
       <c r="F438">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G438">
+      <c r="G438" s="3">
         <v>20</v>
       </c>
       <c r="H438">
         <v>12</v>
       </c>
-      <c r="I438">
+      <c r="I438" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13245,13 +13246,13 @@
       <c r="F439">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G439">
+      <c r="G439" s="3">
         <v>20</v>
       </c>
       <c r="H439">
         <v>14</v>
       </c>
-      <c r="I439">
+      <c r="I439" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13274,13 +13275,13 @@
       <c r="F440">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G440">
+      <c r="G440" s="3">
         <v>20</v>
       </c>
       <c r="H440">
         <v>10</v>
       </c>
-      <c r="I440">
+      <c r="I440" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13303,13 +13304,13 @@
       <c r="F441">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G441">
+      <c r="G441" s="3">
         <v>20</v>
       </c>
       <c r="H441">
         <v>12</v>
       </c>
-      <c r="I441">
+      <c r="I441" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13332,13 +13333,13 @@
       <c r="F442">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G442">
+      <c r="G442" s="3">
         <v>20</v>
       </c>
       <c r="H442">
         <v>14</v>
       </c>
-      <c r="I442">
+      <c r="I442" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13361,13 +13362,13 @@
       <c r="F443">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G443">
+      <c r="G443" s="3">
         <v>20</v>
       </c>
       <c r="H443">
         <v>10</v>
       </c>
-      <c r="I443">
+      <c r="I443" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13390,13 +13391,13 @@
       <c r="F444">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G444">
+      <c r="G444" s="3">
         <v>20</v>
       </c>
       <c r="H444">
         <v>12</v>
       </c>
-      <c r="I444">
+      <c r="I444" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13419,13 +13420,13 @@
       <c r="F445">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G445">
+      <c r="G445" s="3">
         <v>20</v>
       </c>
       <c r="H445">
         <v>14</v>
       </c>
-      <c r="I445">
+      <c r="I445" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13448,13 +13449,13 @@
       <c r="F446">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G446">
+      <c r="G446" s="3">
         <v>20</v>
       </c>
       <c r="H446">
         <v>10</v>
       </c>
-      <c r="I446">
+      <c r="I446" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13477,13 +13478,13 @@
       <c r="F447">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G447">
+      <c r="G447" s="3">
         <v>20</v>
       </c>
       <c r="H447">
         <v>12</v>
       </c>
-      <c r="I447">
+      <c r="I447" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13506,13 +13507,13 @@
       <c r="F448">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G448">
+      <c r="G448" s="3">
         <v>20</v>
       </c>
       <c r="H448">
         <v>14</v>
       </c>
-      <c r="I448">
+      <c r="I448" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13535,13 +13536,13 @@
       <c r="F449">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G449">
+      <c r="G449" s="3">
         <v>20</v>
       </c>
       <c r="H449">
         <v>10</v>
       </c>
-      <c r="I449">
+      <c r="I449" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13564,13 +13565,13 @@
       <c r="F450">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G450">
+      <c r="G450" s="3">
         <v>20</v>
       </c>
       <c r="H450">
         <v>12</v>
       </c>
-      <c r="I450">
+      <c r="I450" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13593,13 +13594,13 @@
       <c r="F451">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G451">
+      <c r="G451" s="3">
         <v>20</v>
       </c>
       <c r="H451">
         <v>14</v>
       </c>
-      <c r="I451">
+      <c r="I451" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13622,13 +13623,13 @@
       <c r="F452">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G452">
+      <c r="G452" s="3">
         <v>20</v>
       </c>
       <c r="H452">
         <v>10</v>
       </c>
-      <c r="I452">
+      <c r="I452" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13651,13 +13652,13 @@
       <c r="F453">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G453">
+      <c r="G453" s="3">
         <v>20</v>
       </c>
       <c r="H453">
         <v>12</v>
       </c>
-      <c r="I453">
+      <c r="I453" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13680,13 +13681,13 @@
       <c r="F454">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G454">
+      <c r="G454" s="3">
         <v>20</v>
       </c>
       <c r="H454">
         <v>14</v>
       </c>
-      <c r="I454">
+      <c r="I454" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13709,13 +13710,13 @@
       <c r="F455">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G455">
+      <c r="G455" s="3">
         <v>20</v>
       </c>
       <c r="H455">
         <v>10</v>
       </c>
-      <c r="I455">
+      <c r="I455" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13738,13 +13739,13 @@
       <c r="F456">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G456">
+      <c r="G456" s="3">
         <v>20</v>
       </c>
       <c r="H456">
         <v>12</v>
       </c>
-      <c r="I456">
+      <c r="I456" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13767,13 +13768,13 @@
       <c r="F457">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G457">
+      <c r="G457" s="3">
         <v>20</v>
       </c>
       <c r="H457">
         <v>14</v>
       </c>
-      <c r="I457">
+      <c r="I457" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13796,13 +13797,13 @@
       <c r="F458">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G458">
+      <c r="G458" s="3">
         <v>20</v>
       </c>
       <c r="H458">
         <v>10</v>
       </c>
-      <c r="I458">
+      <c r="I458" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13825,13 +13826,13 @@
       <c r="F459">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G459">
+      <c r="G459" s="3">
         <v>20</v>
       </c>
       <c r="H459">
         <v>12</v>
       </c>
-      <c r="I459">
+      <c r="I459" s="3">
         <v>15</v>
       </c>
     </row>
@@ -13854,13 +13855,13 @@
       <c r="F460">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G460">
+      <c r="G460" s="3">
         <v>20</v>
       </c>
       <c r="H460">
         <v>14</v>
       </c>
-      <c r="I460">
+      <c r="I460" s="3">
         <v>15</v>
       </c>
     </row>
